--- a/TP2/Ej1_Bodes/Inversor_G0.1_OK.xlsx
+++ b/TP2/Ej1_Bodes/Inversor_G0.1_OK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C1CD0-9104-408B-8453-97D64422A4F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F86D0D-68E1-4D50-A6F1-FCD03F53F897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Gain</t>
   </si>
   <si>
     <t>freq</t>
-  </si>
-  <si>
-    <t>amplitud maxima pico</t>
   </si>
   <si>
     <t>vpp</t>
@@ -51,13 +48,30 @@
   <si>
     <t>phase</t>
   </si>
+  <si>
+    <t>vd</t>
+  </si>
+  <si>
+    <t>Zinp</t>
+  </si>
+  <si>
+    <t>amp maxima pico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,8 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,405 +387,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
+      <c r="M2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>100000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>500000/(2*PI()*C3*A3)</f>
         <v>7.9577471545947667</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <f>2*D3</f>
         <v>15.915494309189533</v>
       </c>
-      <c r="G3">
-        <v>-2.5</v>
-      </c>
-      <c r="H3">
-        <v>1.3</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I3" s="1">
         <v>-20.399999999999999</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <f>(H3*12000)/(H3-L3)</f>
+        <v>12000</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>300000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" ref="D5:D19" si="0">500000/(2*PI()*C5*A5)</f>
         <v>2.6525823848649224</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F19" si="1">2*D5</f>
         <v>5.3051647697298447</v>
       </c>
-      <c r="G5">
-        <v>-2.5</v>
-      </c>
-      <c r="H5">
-        <v>1.3</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="1">
         <v>-20.5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <f t="shared" ref="M4:M18" si="2">(H5*12000)/(H5-L5)</f>
+        <v>12000</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>500000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>1.5915494309189535</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>3.183098861837907</v>
       </c>
-      <c r="G7">
-        <v>-2.5</v>
-      </c>
-      <c r="H7">
-        <v>1.3</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I7" s="1">
         <v>-20.6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>700000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1.1368210220849668</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>2.2736420441699337</v>
       </c>
-      <c r="G9">
-        <v>-2.5</v>
-      </c>
-      <c r="H9">
-        <v>1.3</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="1">
         <v>-20.9</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>800000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0.99471839432434583</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>1.9894367886486917</v>
       </c>
-      <c r="G10">
-        <v>-2.5</v>
-      </c>
-      <c r="H10">
-        <v>1.3</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I10" s="1">
         <v>-21.1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>900000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0.88419412828830735</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>1.7683882565766147</v>
       </c>
-      <c r="G11">
-        <v>-2.5</v>
-      </c>
-      <c r="H11">
-        <v>1.3</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="1">
         <v>-22</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.1</v>
-      </c>
-      <c r="C12">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>950000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0.83765759522050176</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>1.6753151904410035</v>
       </c>
-      <c r="G12">
-        <v>-2.5</v>
-      </c>
-      <c r="H12">
-        <v>1.3</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I12" s="1">
         <v>-22.3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>960000</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0.82893199527028827</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>1.6578639905405765</v>
       </c>
-      <c r="G13">
-        <v>-2.5</v>
-      </c>
-      <c r="H13">
-        <v>1.3</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I13" s="1">
         <v>-22.4</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>980000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0.81201501577497626</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>1.6240300315499525</v>
       </c>
-      <c r="G15">
-        <v>-2.5</v>
-      </c>
-      <c r="H15">
-        <v>1.3</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I15" s="1">
         <v>-22.5</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.1</v>
-      </c>
-      <c r="C16">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
         <v>990000</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0.80381284389846142</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>1.6076256877969228</v>
       </c>
-      <c r="G16">
-        <v>-2.5</v>
-      </c>
-      <c r="H16">
-        <v>1.3</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I16" s="1">
         <v>-22.6</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.1</v>
-      </c>
-      <c r="C17">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>1000000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>0.79577471545947676</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>1.5915494309189535</v>
       </c>
-      <c r="G17">
-        <v>-2.5</v>
-      </c>
-      <c r="H17">
-        <v>1.3</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I17" s="1">
         <v>-22.7</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.1</v>
-      </c>
-      <c r="C18">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>1100000</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>0.72343155950861515</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>1.4468631190172303</v>
       </c>
-      <c r="G18">
-        <v>-2.5</v>
-      </c>
-      <c r="H18">
-        <v>1.3</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I18" s="1">
         <v>-23.2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.1</v>
-      </c>
-      <c r="C19">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>1200000</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>0.66314559621623059</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>1.3262911924324612</v>
       </c>
-      <c r="G19">
-        <v>-2.5</v>
-      </c>
-      <c r="H19">
-        <v>1.3</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I19" s="1">
         <v>-23.7</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>87</v>
       </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <f>(H19*12000)/(H19-L19)</f>
+        <v>12000</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP2/Ej1_Bodes/Inversor_G0.1_OK.xlsx
+++ b/TP2/Ej1_Bodes/Inversor_G0.1_OK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F86D0D-68E1-4D50-A6F1-FCD03F53F897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4F34DF-40F0-496B-BDA0-55D89F24A95D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,12 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,27 +484,52 @@
         <v>174</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="3">
+        <v>0.02</v>
+      </c>
       <c r="M3" s="1">
         <f>(H3*12000)/(H3-L3)</f>
-        <v>12000</v>
+        <v>12187.5</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D15" si="0">500000/(2*PI()*C4*A4)</f>
+        <v>2.6525823848649224</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F15" si="1">2*D4</f>
+        <v>5.3051647697298447</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-20.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>160</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M14" si="2">(H4*12000)/(H4-L4)</f>
+        <v>12430.27888446215</v>
+      </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -510,16 +538,16 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D19" si="0">500000/(2*PI()*C5*A5)</f>
-        <v>2.6525823848649224</v>
+        <f t="shared" si="0"/>
+        <v>1.5915494309189535</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F19" si="1">2*D5</f>
-        <v>5.3051647697298447</v>
+        <f t="shared" si="1"/>
+        <v>3.183098861837907</v>
       </c>
       <c r="G5" s="1">
         <v>-2.5</v>
@@ -528,33 +556,58 @@
         <v>1.3</v>
       </c>
       <c r="I5" s="1">
-        <v>-20.5</v>
+        <v>-20.6</v>
       </c>
       <c r="J5" s="1">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M4:M18" si="2">(H5*12000)/(H5-L5)</f>
-        <v>12000</v>
+        <f t="shared" si="2"/>
+        <v>12860.676009892826</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>0.1</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>700000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1368210220849668</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2736420441699337</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-20.9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>128</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>13356.164383561641</v>
+      </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -563,16 +616,16 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>1.5915494309189535</v>
+        <v>0.99471839432434583</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>3.183098861837907</v>
+        <v>1.9894367886486917</v>
       </c>
       <c r="G7" s="1">
         <v>-2.5</v>
@@ -581,33 +634,58 @@
         <v>1.3</v>
       </c>
       <c r="I7" s="1">
-        <v>-20.6</v>
+        <v>-21.1</v>
       </c>
       <c r="J7" s="1">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="3">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="M7" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13344.739093242088</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>0.1</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88419412828830735</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7683882565766147</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-22</v>
+      </c>
+      <c r="J8" s="1">
+        <v>112</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>13390.557939914162</v>
+      </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -616,16 +694,16 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>700000</v>
+        <v>950000</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1.1368210220849668</v>
+        <v>0.83765759522050176</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>2.2736420441699337</v>
+        <v>1.6753151904410035</v>
       </c>
       <c r="G9" s="1">
         <v>-2.5</v>
@@ -634,16 +712,18 @@
         <v>1.3</v>
       </c>
       <c r="I9" s="1">
-        <v>-20.9</v>
+        <v>-22.3</v>
       </c>
       <c r="J9" s="1">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="3">
+        <v>0.13400000000000001</v>
+      </c>
       <c r="M9" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13379.073756432248</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -653,16 +733,16 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>800000</v>
+        <v>960000</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.99471839432434583</v>
+        <v>0.82893199527028827</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>1.9894367886486917</v>
+        <v>1.6578639905405765</v>
       </c>
       <c r="G10" s="1">
         <v>-2.5</v>
@@ -671,16 +751,18 @@
         <v>1.3</v>
       </c>
       <c r="I10" s="1">
-        <v>-21.1</v>
+        <v>-22.4</v>
       </c>
       <c r="J10" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="3">
+        <v>0.13200000000000001</v>
+      </c>
       <c r="M10" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13356.164383561641</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -690,16 +772,16 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>900000</v>
+        <v>980000</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.88419412828830735</v>
+        <v>0.81201501577497626</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>1.7683882565766147</v>
+        <v>1.6240300315499525</v>
       </c>
       <c r="G11" s="1">
         <v>-2.5</v>
@@ -708,16 +790,18 @@
         <v>1.3</v>
       </c>
       <c r="I11" s="1">
-        <v>-22</v>
+        <v>-22.5</v>
       </c>
       <c r="J11" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="3">
+        <v>0.13</v>
+      </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13333.333333333334</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -727,16 +811,16 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>950000</v>
+        <v>990000</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.83765759522050176</v>
+        <v>0.80381284389846142</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>1.6753151904410035</v>
+        <v>1.6076256877969228</v>
       </c>
       <c r="G12" s="1">
         <v>-2.5</v>
@@ -745,16 +829,18 @@
         <v>1.3</v>
       </c>
       <c r="I12" s="1">
-        <v>-22.3</v>
+        <v>-22.6</v>
       </c>
       <c r="J12" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="3">
+        <v>0.128</v>
+      </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13310.580204778154</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -764,16 +850,16 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>960000</v>
+        <v>1000000</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.82893199527028827</v>
+        <v>0.79577471545947676</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>1.6578639905405765</v>
+        <v>1.5915494309189535</v>
       </c>
       <c r="G13" s="1">
         <v>-2.5</v>
@@ -782,33 +868,58 @@
         <v>1.3</v>
       </c>
       <c r="I13" s="1">
-        <v>-22.4</v>
+        <v>-22.7</v>
       </c>
       <c r="J13" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="3">
+        <v>0.127</v>
+      </c>
       <c r="M13" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13299.232736572889</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.1</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72343155950861515</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4468631190172303</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-23.2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>94</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>13220.338983050846</v>
+      </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -817,16 +928,16 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>980000</v>
+        <v>1200000</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>0.81201501577497626</v>
+        <v>0.66314559621623059</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>1.6240300315499525</v>
+        <v>1.3262911924324612</v>
       </c>
       <c r="G15" s="1">
         <v>-2.5</v>
@@ -835,230 +946,84 @@
         <v>1.3</v>
       </c>
       <c r="I15" s="1">
-        <v>-22.5</v>
+        <v>-23.7</v>
       </c>
       <c r="J15" s="1">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="3">
+        <v>0.112</v>
+      </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
-        <v>12000</v>
+        <f>(H15*12000)/(H15-L15)</f>
+        <v>13131.313131313133</v>
       </c>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>990000</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80381284389846142</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6076256877969228</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-22.6</v>
-      </c>
-      <c r="J16" s="1">
-        <v>102</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79577471545947676</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5915494309189535</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-22.7</v>
-      </c>
-      <c r="J17" s="1">
-        <v>102</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>1100000</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72343155950861515</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4468631190172303</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-23.2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>94</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>1200000</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66314559621623059</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3262911924324612</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="I19" s="1">
-        <v>-23.7</v>
-      </c>
-      <c r="J19" s="1">
-        <v>87</v>
-      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <f>(H19*12000)/(H19-L19)</f>
-        <v>12000</v>
-      </c>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
